--- a/image/specimen.xlsx
+++ b/image/specimen.xlsx
@@ -1115,44 +1115,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="147.59375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="148.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.5" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.06640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="56.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="95.3046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="53.08984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="96.05859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="51.5234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/specimen.xlsx
+++ b/image/specimen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="309">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -545,10 +545,6 @@
   </si>
   <si>
     <t>Specimen.collection.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1115,44 +1111,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="147.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="56.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.5" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="35.06640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="96.05859375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="51.5234375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="95.3046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="53.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3230,13 +3226,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3287,7 +3283,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3302,7 +3298,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3313,7 +3309,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3342,7 +3338,7 @@
         <v>93</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>95</v>
@@ -3395,7 +3391,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3410,7 +3406,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3421,11 +3417,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3447,10 +3443,10 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>95</v>
@@ -3505,7 +3501,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3531,7 +3527,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3554,13 +3550,13 @@
         <v>48</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3611,7 +3607,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3626,18 +3622,18 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3660,13 +3656,13 @@
         <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3717,7 +3713,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3732,18 +3728,18 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3766,13 +3762,13 @@
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3823,7 +3819,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3841,7 +3837,7 @@
         <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -3849,7 +3845,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3872,13 +3868,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3929,7 +3925,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3944,18 +3940,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3981,10 +3977,10 @@
         <v>125</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4014,11 +4010,11 @@
         <v>129</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4035,7 +4031,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4050,18 +4046,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4087,13 +4083,13 @@
         <v>125</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4122,11 +4118,11 @@
         <v>129</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4158,18 +4154,18 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4192,19 +4188,19 @@
         <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4229,14 +4225,14 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4253,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4274,12 +4270,12 @@
         <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4305,10 +4301,10 @@
         <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4359,7 +4355,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4374,7 +4370,7 @@
         <v>167</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4385,7 +4381,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4408,13 +4404,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4465,7 +4461,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4480,7 +4476,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4491,7 +4487,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4520,7 +4516,7 @@
         <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>95</v>
@@ -4573,7 +4569,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4588,7 +4584,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4599,11 +4595,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4625,10 +4621,10 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>95</v>
@@ -4683,7 +4679,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4709,7 +4705,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4732,13 +4728,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4789,7 +4785,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4804,7 +4800,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4815,7 +4811,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4841,10 +4837,10 @@
         <v>125</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4874,11 +4870,11 @@
         <v>129</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4921,7 +4917,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4944,13 +4940,13 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5001,7 +4997,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5016,18 +5012,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5050,13 +5046,13 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5107,7 +5103,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5122,7 +5118,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5133,7 +5129,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5159,10 +5155,10 @@
         <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5213,7 +5209,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5228,7 +5224,7 @@
         <v>167</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5239,7 +5235,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5262,13 +5258,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5319,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5334,7 +5330,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5345,7 +5341,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5374,7 +5370,7 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>95</v>
@@ -5427,7 +5423,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5442,7 +5438,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5453,11 +5449,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5479,10 +5475,10 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>95</v>
@@ -5537,7 +5533,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5563,7 +5559,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5589,10 +5585,10 @@
         <v>103</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5643,7 +5639,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5664,12 +5660,12 @@
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5692,13 +5688,13 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5749,7 +5745,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5764,7 +5760,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -5775,7 +5771,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5801,10 +5797,10 @@
         <v>125</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5834,11 +5830,11 @@
         <v>129</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5855,7 +5851,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5876,12 +5872,12 @@
         <v>39</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5904,13 +5900,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5961,7 +5957,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -5976,18 +5972,18 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6010,13 +6006,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6067,7 +6063,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6082,18 +6078,18 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6116,13 +6112,13 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6152,11 +6148,11 @@
         <v>129</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6188,18 +6184,18 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6225,16 +6221,16 @@
         <v>125</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6259,14 +6255,14 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6283,7 +6279,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6304,12 +6300,12 @@
         <v>39</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6332,13 +6328,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6389,7 +6385,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6404,13 +6400,13 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
